--- a/Data/Graphs/random.xlsx
+++ b/Data/Graphs/random.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaxar/Desktop/AI_Final/Data/Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{15A344B4-CF40-D04D-9BF3-B689787FD8FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3EABD3-3238-6145-934A-7D85D843F2C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="3580" windowWidth="31640" windowHeight="23340"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +166,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -498,8 +515,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -781,8 +799,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1124,8 +1143,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1463,8 +1483,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1733,25 +1754,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.81620330978156697</c:v>
+                  <c:v>-0.18069304728413699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.488431274252067</c:v>
+                  <c:v>-2.2870263393137802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88190311904855001</c:v>
+                  <c:v>-0.42148259232091401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99958950307506</c:v>
+                  <c:v>1.7339505982921199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.384063579383284</c:v>
+                  <c:v>-1.1713879172991599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.86912963229290396</c:v>
+                  <c:v>-1.4601650946487399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98462453007758799</c:v>
+                  <c:v>1.26084640717894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,25 +1784,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.57776479392709201</c:v>
+                  <c:v>-6.2889498561040799E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.87260236667825997</c:v>
+                  <c:v>-0.95760858572296403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47143068272275002</c:v>
+                  <c:v>0.97339631275006799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.8650049601239399E-2</c:v>
+                  <c:v>1.08751032265502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92330664840631305</c:v>
+                  <c:v>1.06517067370246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.49458435303838699</c:v>
+                  <c:v>1.48084418494642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17468409993324799</c:v>
+                  <c:v>0.62870454458500502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,8 +1853,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2102,13 +2124,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.695013393334457</c:v>
+                  <c:v>5.8772809560856398E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.96718212772606704</c:v>
+                  <c:v>-2.2870263393137802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98379684450746796</c:v>
+                  <c:v>1.5079789050986401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,13 +2142,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.71899678934312505</c:v>
+                  <c:v>8.1454938345254094E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25408410380674401</c:v>
+                  <c:v>-0.95760858572296403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17928683369714599</c:v>
+                  <c:v>0.87342174441243603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,8 +2199,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2445,10 +2468,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.99800756431759696</c:v>
+                  <c:v>1.5079774701462201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.27437576250322498</c:v>
+                  <c:v>-2.2870263393137802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,10 +2483,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.3094386159594298E-2</c:v>
+                  <c:v>0.87342144411904199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96162255638622196</c:v>
+                  <c:v>-0.95760858572296403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,8 +2537,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6643,109 +6667,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>-0.99800756431759696</v>
+      <c r="A1" s="1">
+        <v>1.5079774701462201</v>
       </c>
-      <c r="B1">
-        <v>6.3094386159594298E-2</v>
+      <c r="B1" s="1">
+        <v>0.87342144411904199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-0.27437576250322498</v>
+      <c r="A2" s="1">
+        <v>-2.2870263393137802</v>
       </c>
-      <c r="B2">
-        <v>0.96162255638622196</v>
+      <c r="B2" s="1">
+        <v>-0.95760858572296403</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.695013393334457</v>
+      <c r="A4" s="1">
+        <v>5.8772809560856398E-2</v>
       </c>
       <c r="B4">
-        <v>0.71899678934312505</v>
+        <v>8.1454938345254094E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>-0.96718212772606704</v>
+      <c r="A5" s="1">
+        <v>-2.2870263393137802</v>
       </c>
       <c r="B5">
-        <v>0.25408410380674401</v>
+        <v>-0.95760858572296403</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.98379684450746796</v>
+        <v>1.5079789050986401</v>
       </c>
       <c r="B6">
-        <v>0.17928683369714599</v>
+        <v>0.87342174441243603</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.81620330978156697</v>
+      <c r="A8" s="1">
+        <v>-0.18069304728413699</v>
       </c>
       <c r="B8">
-        <v>0.57776479392709201</v>
+        <v>-6.2889498561040799E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.488431274252067</v>
+      <c r="A9" s="1">
+        <v>-2.2870263393137802</v>
       </c>
       <c r="B9">
-        <v>-0.87260236667825997</v>
+        <v>-0.95760858572296403</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.88190311904855001</v>
+        <v>-0.42148259232091401</v>
       </c>
       <c r="B10">
-        <v>0.47143068272275002</v>
+        <v>0.97339631275006799</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.99958950307506</v>
+        <v>1.7339505982921199</v>
       </c>
       <c r="B11">
-        <v>-2.8650049601239399E-2</v>
+        <v>1.08751032265502</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.384063579383284</v>
+        <v>-1.1713879172991599</v>
       </c>
       <c r="B12">
-        <v>0.92330664840631305</v>
+        <v>1.06517067370246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-0.86912963229290396</v>
+        <v>-1.4601650946487399</v>
       </c>
       <c r="B13">
-        <v>-0.49458435303838699</v>
+        <v>1.48084418494642</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.98462453007758799</v>
+        <v>1.26084640717894</v>
       </c>
       <c r="B14">
-        <v>0.17468409993324799</v>
+        <v>0.62870454458500502</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
